--- a/俄罗斯方块/PK Game俄罗斯方块规则、/PK Game俄罗斯方块规则、/俄罗斯方块规则、/第一版/01详细UI布局1.0.xlsx
+++ b/俄罗斯方块/PK Game俄罗斯方块规则、/PK Game俄罗斯方块规则、/俄罗斯方块规则、/第一版/01详细UI布局1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18588" windowHeight="9467" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="多人战斗UI" sheetId="3" r:id="rId1"/>
@@ -32,14 +32,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -54,6 +78,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -61,10 +93,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,38 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,16 +138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,19 +161,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -184,19 +184,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,13 +202,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,25 +232,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,19 +274,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,55 +316,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,13 +364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,6 +375,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,7 +412,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -405,8 +446,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -426,52 +467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,10 +483,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -495,106 +495,85 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,25 +582,46 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -712,8 +712,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3289935" y="1392555"/>
-          <a:ext cx="5184140" cy="2915920"/>
+          <a:off x="3632835" y="1312545"/>
+          <a:ext cx="5732780" cy="2733040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -864,8 +864,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2430780" y="2087880"/>
-          <a:ext cx="7246620" cy="7620"/>
+          <a:off x="2636520" y="1962150"/>
+          <a:ext cx="8069580" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -908,8 +908,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2379345" y="2819400"/>
-          <a:ext cx="7228840" cy="3175"/>
+          <a:off x="2585085" y="2647950"/>
+          <a:ext cx="8051800" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -952,8 +952,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371090" y="3589020"/>
-          <a:ext cx="7156450" cy="6985"/>
+          <a:off x="2576830" y="3371850"/>
+          <a:ext cx="7979410" cy="6985"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -996,8 +996,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4945380" y="655320"/>
-          <a:ext cx="0" cy="4671060"/>
+          <a:off x="5494020" y="621030"/>
+          <a:ext cx="0" cy="4373880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1040,8 +1040,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4932680" y="1412240"/>
-          <a:ext cx="1851660" cy="2887345"/>
+          <a:off x="5412740" y="1332230"/>
+          <a:ext cx="2057400" cy="2704465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1198,8 +1198,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6766560" y="708660"/>
-          <a:ext cx="15240" cy="4572000"/>
+          <a:off x="7452360" y="674370"/>
+          <a:ext cx="15240" cy="4286250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1242,8 +1242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5295900" y="1036320"/>
-          <a:ext cx="1028065" cy="209550"/>
+          <a:off x="5844540" y="979170"/>
+          <a:ext cx="1165225" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1313,8 +1313,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5057140" y="1391920"/>
-          <a:ext cx="1440180" cy="2879725"/>
+          <a:off x="5605780" y="1311910"/>
+          <a:ext cx="1577340" cy="2696845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,8 +1471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="2033905"/>
-          <a:ext cx="144145" cy="2232025"/>
+          <a:off x="5356860" y="1908175"/>
+          <a:ext cx="212725" cy="2094865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1530,8 +1530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4460875" y="1419860"/>
-          <a:ext cx="575945" cy="575945"/>
+          <a:off x="4940935" y="1339850"/>
+          <a:ext cx="644525" cy="541655"/>
         </a:xfrm>
         <a:prstGeom prst="corner">
           <a:avLst/>
@@ -1589,8 +1589,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6542405" y="1499870"/>
-          <a:ext cx="467995" cy="1727835"/>
+          <a:off x="7228205" y="1408430"/>
+          <a:ext cx="536575" cy="1624965"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1747,8 +1747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543040" y="3289300"/>
-          <a:ext cx="467995" cy="899795"/>
+          <a:off x="7228840" y="3086100"/>
+          <a:ext cx="536575" cy="851535"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1905,8 +1905,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="3027680"/>
-          <a:ext cx="487680" cy="466090"/>
+          <a:off x="4621530" y="2844800"/>
+          <a:ext cx="556260" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2064,8 +2064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3468370" y="3032760"/>
-          <a:ext cx="487680" cy="466090"/>
+          <a:off x="3811270" y="2849880"/>
+          <a:ext cx="556260" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2223,8 +2223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3816350" y="3685540"/>
-          <a:ext cx="487680" cy="466090"/>
+          <a:off x="4227830" y="3456940"/>
+          <a:ext cx="487680" cy="443230"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2382,8 +2382,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7109460" y="1422400"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="7863840" y="1342390"/>
+          <a:ext cx="144145" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2540,8 +2540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7112000" y="2065020"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="7866380" y="1939290"/>
+          <a:ext cx="144145" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2698,8 +2698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7117080" y="2397760"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="7871460" y="2249170"/>
+          <a:ext cx="144145" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2856,8 +2856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7114540" y="2722880"/>
-          <a:ext cx="159385" cy="288290"/>
+          <a:off x="7868920" y="2562860"/>
+          <a:ext cx="159385" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3014,8 +3014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7343140" y="1419860"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="8097520" y="1339850"/>
+          <a:ext cx="212725" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3172,8 +3172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7345680" y="2062480"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="8100060" y="1936750"/>
+          <a:ext cx="212725" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3330,8 +3330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7350760" y="2395220"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="8105140" y="2246630"/>
+          <a:ext cx="212725" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3488,8 +3488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7348220" y="2720340"/>
-          <a:ext cx="159385" cy="288290"/>
+          <a:off x="8102600" y="2560320"/>
+          <a:ext cx="227965" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3646,8 +3646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7614920" y="1424940"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="8437880" y="1344930"/>
+          <a:ext cx="144145" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3804,8 +3804,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7617460" y="2067560"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="8440420" y="1941830"/>
+          <a:ext cx="144145" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3962,8 +3962,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7622540" y="2400300"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="8445500" y="2251710"/>
+          <a:ext cx="144145" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4120,8 +4120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="2725420"/>
-          <a:ext cx="159385" cy="288290"/>
+          <a:off x="8442960" y="2565400"/>
+          <a:ext cx="159385" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4278,8 +4278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7909560" y="1414780"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="8732520" y="1334770"/>
+          <a:ext cx="212725" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4436,8 +4436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7912100" y="2057400"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="8735060" y="1931670"/>
+          <a:ext cx="212725" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4594,8 +4594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7917180" y="2390140"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="8740140" y="2241550"/>
+          <a:ext cx="212725" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4752,8 +4752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7914640" y="2715260"/>
-          <a:ext cx="159385" cy="288290"/>
+          <a:off x="8737600" y="2555240"/>
+          <a:ext cx="227965" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4910,8 +4910,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8219440" y="1435100"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="9110980" y="1355090"/>
+          <a:ext cx="144145" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5068,8 +5068,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7106920" y="1732280"/>
-          <a:ext cx="1253490" cy="308610"/>
+          <a:off x="7861300" y="1629410"/>
+          <a:ext cx="1390650" cy="285750"/>
           <a:chOff x="11180" y="2716"/>
           <a:chExt cx="1974" cy="486"/>
         </a:xfrm>
@@ -5812,8 +5812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8221980" y="2077720"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="9113520" y="1951990"/>
+          <a:ext cx="144145" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5970,8 +5970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8227060" y="2410460"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="9118600" y="2261870"/>
+          <a:ext cx="144145" cy="276860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6128,8 +6128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8224520" y="2735580"/>
-          <a:ext cx="159385" cy="288290"/>
+          <a:off x="9116060" y="2571750"/>
+          <a:ext cx="159385" cy="269240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6286,8 +6286,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3416300" y="2072640"/>
-          <a:ext cx="1253490" cy="308610"/>
+          <a:off x="3759200" y="1946910"/>
+          <a:ext cx="1390650" cy="285750"/>
           <a:chOff x="11180" y="2716"/>
           <a:chExt cx="1974" cy="486"/>
         </a:xfrm>
@@ -7030,8 +7030,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3421380" y="2382520"/>
-          <a:ext cx="1253490" cy="308610"/>
+          <a:off x="3764280" y="2233930"/>
+          <a:ext cx="1390650" cy="297180"/>
           <a:chOff x="11180" y="2716"/>
           <a:chExt cx="1974" cy="486"/>
         </a:xfrm>
@@ -7774,8 +7774,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3426460" y="2692400"/>
-          <a:ext cx="1253490" cy="308610"/>
+          <a:off x="3769360" y="2532380"/>
+          <a:ext cx="1390650" cy="285750"/>
           <a:chOff x="11180" y="2716"/>
           <a:chExt cx="1974" cy="486"/>
         </a:xfrm>
@@ -8518,8 +8518,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3408680" y="1752600"/>
-          <a:ext cx="1253490" cy="308610"/>
+          <a:off x="3751580" y="1649730"/>
+          <a:ext cx="1390650" cy="285750"/>
           <a:chOff x="11180" y="2716"/>
           <a:chExt cx="1974" cy="486"/>
         </a:xfrm>
@@ -9262,8 +9262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3413760" y="1430020"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="3756660" y="1350010"/>
+          <a:ext cx="144145" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9420,8 +9420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3647440" y="1427480"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="3990340" y="1347470"/>
+          <a:ext cx="212725" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9578,8 +9578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3919220" y="1432560"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="4330700" y="1352550"/>
+          <a:ext cx="144145" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9736,8 +9736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4213860" y="1422400"/>
-          <a:ext cx="144145" cy="288290"/>
+          <a:off x="4625340" y="1342390"/>
+          <a:ext cx="212725" cy="265430"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9894,8 +9894,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5394960" y="1577340"/>
-          <a:ext cx="746760" cy="198120"/>
+          <a:off x="5943600" y="1485900"/>
+          <a:ext cx="815340" cy="186690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9960,8 +9960,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5775960" y="967740"/>
-          <a:ext cx="1402080" cy="716280"/>
+          <a:off x="6393180" y="910590"/>
+          <a:ext cx="1539240" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10007,8 +10007,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5814060" y="229235"/>
-          <a:ext cx="2635885" cy="685165"/>
+          <a:off x="6431280" y="217805"/>
+          <a:ext cx="2910205" cy="639445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10086,8 +10086,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8363585" y="1158240"/>
-          <a:ext cx="1176655" cy="421005"/>
+          <a:off x="9255125" y="1089660"/>
+          <a:ext cx="1313815" cy="398145"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10133,8 +10133,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9646285" y="784225"/>
-          <a:ext cx="1463040" cy="1273175"/>
+          <a:off x="10674985" y="738505"/>
+          <a:ext cx="1600200" cy="1193165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10206,8 +10206,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9631680" y="3002280"/>
-          <a:ext cx="1836420" cy="715010"/>
+          <a:off x="10660380" y="2819400"/>
+          <a:ext cx="2042160" cy="669290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10274,7 +10274,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:ext cx="309880" cy="262255"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="119" name="文本框 118"/>
@@ -10282,8 +10282,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10363200" y="4259580"/>
-          <a:ext cx="309880" cy="273685"/>
+          <a:off x="11460480" y="3996690"/>
+          <a:ext cx="309880" cy="262255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10335,8 +10335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9624060" y="3977640"/>
-          <a:ext cx="2034540" cy="845820"/>
+          <a:off x="10652760" y="3737610"/>
+          <a:ext cx="2240280" cy="788670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10426,8 +10426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10624820" y="2132330"/>
-          <a:ext cx="1821180" cy="662305"/>
+          <a:off x="11790680" y="2006600"/>
+          <a:ext cx="2026920" cy="616585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10517,8 +10517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6748780" y="5170805"/>
-          <a:ext cx="3331210" cy="500380"/>
+          <a:off x="7434580" y="4850765"/>
+          <a:ext cx="3742690" cy="466090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10606,8 +10606,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4077970" y="1077595"/>
-          <a:ext cx="670560" cy="342265"/>
+          <a:off x="4489450" y="1020445"/>
+          <a:ext cx="739140" cy="319405"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10653,8 +10653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="175260"/>
-          <a:ext cx="2232660" cy="815340"/>
+          <a:off x="2926080" y="171450"/>
+          <a:ext cx="2438400" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10727,8 +10727,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2420620" y="1624965"/>
-          <a:ext cx="1119505" cy="1474470"/>
+          <a:off x="2626360" y="1533525"/>
+          <a:ext cx="1256665" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10774,8 +10774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="896620" y="1232535"/>
-          <a:ext cx="1524635" cy="788670"/>
+          <a:off x="965200" y="1163955"/>
+          <a:ext cx="1661795" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10856,8 +10856,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2174875" y="3002280"/>
-          <a:ext cx="2106930" cy="421005"/>
+          <a:off x="2380615" y="2819400"/>
+          <a:ext cx="2312670" cy="398145"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10903,8 +10903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="573405" y="2527300"/>
-          <a:ext cx="1602105" cy="946785"/>
+          <a:off x="573405" y="2378710"/>
+          <a:ext cx="1807845" cy="878840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10985,8 +10985,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2530475" y="3918585"/>
-          <a:ext cx="1285875" cy="395605"/>
+          <a:off x="2804795" y="3678555"/>
+          <a:ext cx="1423035" cy="372745"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11032,8 +11032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="721360" y="3858260"/>
-          <a:ext cx="1809750" cy="916305"/>
+          <a:off x="789940" y="3618230"/>
+          <a:ext cx="2015490" cy="859155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11128,8 +11128,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1988185" y="4168775"/>
-          <a:ext cx="2642870" cy="1004570"/>
+          <a:off x="2193925" y="3917315"/>
+          <a:ext cx="2917190" cy="935990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11175,8 +11175,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="845820" y="5259070"/>
-          <a:ext cx="2293620" cy="546735"/>
+          <a:off x="914400" y="4939030"/>
+          <a:ext cx="2567940" cy="512445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11250,8 +11250,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6105525" y="4189095"/>
-          <a:ext cx="671830" cy="1672590"/>
+          <a:off x="6722745" y="3937635"/>
+          <a:ext cx="740410" cy="1558290"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11297,8 +11297,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181600" y="5949315"/>
-          <a:ext cx="2620010" cy="857250"/>
+          <a:off x="5730240" y="5583555"/>
+          <a:ext cx="2894330" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11422,8 +11422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6614160" y="3352800"/>
-          <a:ext cx="312420" cy="114300"/>
+          <a:off x="7299960" y="3147060"/>
+          <a:ext cx="381000" cy="110490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11495,8 +11495,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619240" y="3495040"/>
-          <a:ext cx="312420" cy="509905"/>
+          <a:off x="7305040" y="3277870"/>
+          <a:ext cx="381000" cy="487045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11667,8 +11667,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619240" y="4043680"/>
-          <a:ext cx="312420" cy="114300"/>
+          <a:off x="7305040" y="3792220"/>
+          <a:ext cx="381000" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11841,8 +11841,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6776720" y="397510"/>
-          <a:ext cx="2504440" cy="1102360"/>
+          <a:off x="7462520" y="374650"/>
+          <a:ext cx="2847340" cy="1033780"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11888,8 +11888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9288780" y="99060"/>
-          <a:ext cx="2179320" cy="579120"/>
+          <a:off x="10317480" y="99060"/>
+          <a:ext cx="2385060" cy="544830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11992,8 +11992,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4784090" y="4265295"/>
-          <a:ext cx="164465" cy="790575"/>
+          <a:off x="5264150" y="4002405"/>
+          <a:ext cx="233045" cy="744855"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12039,8 +12039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4061460" y="5055870"/>
-          <a:ext cx="1445260" cy="485140"/>
+          <a:off x="4472940" y="4747260"/>
+          <a:ext cx="1582420" cy="450850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12111,8 +12111,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5777230" y="1245870"/>
-          <a:ext cx="33020" cy="146050"/>
+          <a:off x="6394450" y="1177290"/>
+          <a:ext cx="33020" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12158,8 +12158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9204325" y="5774055"/>
-          <a:ext cx="3736975" cy="833755"/>
+          <a:off x="10164445" y="5419725"/>
+          <a:ext cx="4148455" cy="776605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12247,8 +12247,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4794250" y="1515110"/>
-          <a:ext cx="186690" cy="227330"/>
+          <a:off x="5274310" y="1423670"/>
+          <a:ext cx="255270" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12314,8 +12314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4848225" y="2456815"/>
-          <a:ext cx="198120" cy="227330"/>
+          <a:off x="5328285" y="2308225"/>
+          <a:ext cx="266700" cy="215900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12381,8 +12381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5553075" y="3992245"/>
-          <a:ext cx="227965" cy="225425"/>
+          <a:off x="6101715" y="3752215"/>
+          <a:ext cx="296545" cy="202565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12446,8 +12446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6708140" y="3643630"/>
-          <a:ext cx="151765" cy="216535"/>
+          <a:off x="7393940" y="3426460"/>
+          <a:ext cx="220345" cy="193675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12513,8 +12513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6699250" y="2063750"/>
-          <a:ext cx="160020" cy="356870"/>
+          <a:off x="7385050" y="1938020"/>
+          <a:ext cx="228600" cy="334010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12580,8 +12580,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7280910" y="3157855"/>
-          <a:ext cx="1014730" cy="1014095"/>
+          <a:off x="8035290" y="2963545"/>
+          <a:ext cx="1151890" cy="956945"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -12738,8 +12738,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7428230" y="3307080"/>
-          <a:ext cx="718185" cy="715010"/>
+          <a:off x="8251190" y="3101340"/>
+          <a:ext cx="786765" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -12782,8 +12782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7945755" y="3550285"/>
-          <a:ext cx="273050" cy="285750"/>
+          <a:off x="8768715" y="3333115"/>
+          <a:ext cx="341630" cy="267335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12951,8 +12951,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7660005" y="3768090"/>
-          <a:ext cx="273050" cy="285750"/>
+          <a:off x="8482965" y="3539490"/>
+          <a:ext cx="273050" cy="262890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13120,8 +13120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7338695" y="3502660"/>
-          <a:ext cx="273050" cy="285750"/>
+          <a:off x="8093075" y="3285490"/>
+          <a:ext cx="341630" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13289,8 +13289,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7662545" y="3222625"/>
-          <a:ext cx="273050" cy="285750"/>
+          <a:off x="8485505" y="3028315"/>
+          <a:ext cx="273050" cy="262890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13461,8 +13461,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7428230" y="3307080"/>
-          <a:ext cx="718185" cy="715010"/>
+          <a:off x="8251190" y="3101340"/>
+          <a:ext cx="786765" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13507,8 +13507,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7798435" y="2411730"/>
-          <a:ext cx="2827655" cy="810895"/>
+          <a:off x="8621395" y="2263140"/>
+          <a:ext cx="3170555" cy="765175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13554,8 +13554,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7092315" y="3789680"/>
-          <a:ext cx="286385" cy="1428115"/>
+          <a:off x="7846695" y="3561080"/>
+          <a:ext cx="286385" cy="1336675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13604,8 +13604,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8218805" y="3359785"/>
-          <a:ext cx="1412875" cy="334645"/>
+          <a:off x="9110345" y="3154045"/>
+          <a:ext cx="1550035" cy="311785"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13653,8 +13653,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7795895" y="4053840"/>
-          <a:ext cx="1783715" cy="186055"/>
+          <a:off x="8618855" y="3802380"/>
+          <a:ext cx="1989455" cy="174625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13700,8 +13700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7402195" y="4445635"/>
-          <a:ext cx="2087880" cy="669290"/>
+          <a:off x="8156575" y="4171315"/>
+          <a:ext cx="2362200" cy="629285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13773,8 +13773,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7781290" y="3672840"/>
-          <a:ext cx="26670" cy="822325"/>
+          <a:off x="8604250" y="3444240"/>
+          <a:ext cx="26670" cy="776605"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13820,8 +13820,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4812030" y="1421130"/>
-          <a:ext cx="0" cy="120650"/>
+          <a:off x="5292090" y="1341120"/>
+          <a:ext cx="0" cy="109220"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13864,8 +13864,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4740275" y="1192530"/>
-          <a:ext cx="160655" cy="182245"/>
+          <a:off x="5220335" y="1123950"/>
+          <a:ext cx="160655" cy="170815"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -13917,8 +13917,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6725920" y="1389380"/>
-          <a:ext cx="0" cy="120650"/>
+          <a:off x="7411720" y="1309370"/>
+          <a:ext cx="0" cy="109220"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -13961,8 +13961,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6647180" y="1198880"/>
-          <a:ext cx="160655" cy="182245"/>
+          <a:off x="7332980" y="1130300"/>
+          <a:ext cx="229235" cy="170815"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -14113,8 +14113,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4866005" y="1488440"/>
-          <a:ext cx="652780" cy="500380"/>
+          <a:off x="5346065" y="1397000"/>
+          <a:ext cx="721360" cy="477520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14160,8 +14160,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6045835" y="1456690"/>
-          <a:ext cx="634365" cy="522605"/>
+          <a:off x="6663055" y="1371600"/>
+          <a:ext cx="702945" cy="493395"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14207,8 +14207,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5106670" y="2037715"/>
-          <a:ext cx="1353820" cy="1816735"/>
+          <a:off x="5655310" y="1911985"/>
+          <a:ext cx="1490980" cy="1702435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14296,8 +14296,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4811395" y="1410970"/>
-          <a:ext cx="0" cy="120650"/>
+          <a:off x="5291455" y="1330960"/>
+          <a:ext cx="0" cy="109220"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14340,8 +14340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4740275" y="1183005"/>
-          <a:ext cx="160655" cy="182245"/>
+          <a:off x="5220335" y="1114425"/>
+          <a:ext cx="160655" cy="170815"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -14492,8 +14492,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6645910" y="1189355"/>
-          <a:ext cx="160655" cy="182245"/>
+          <a:off x="7331710" y="1120775"/>
+          <a:ext cx="229235" cy="170815"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -14649,8 +14649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3282315" y="1384935"/>
-          <a:ext cx="5184140" cy="2915920"/>
+          <a:off x="3625215" y="1304925"/>
+          <a:ext cx="5732780" cy="2733040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14801,8 +14801,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2430780" y="2087880"/>
-          <a:ext cx="7246620" cy="7620"/>
+          <a:off x="2636520" y="1962150"/>
+          <a:ext cx="8069580" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14845,8 +14845,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2379345" y="2819400"/>
-          <a:ext cx="7228840" cy="3175"/>
+          <a:off x="2585085" y="2647950"/>
+          <a:ext cx="8051800" cy="3175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14889,8 +14889,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371090" y="3589020"/>
-          <a:ext cx="7156450" cy="6985"/>
+          <a:off x="2576830" y="3371850"/>
+          <a:ext cx="7979410" cy="6985"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14933,8 +14933,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4945380" y="655320"/>
-          <a:ext cx="0" cy="4671060"/>
+          <a:off x="5494020" y="621030"/>
+          <a:ext cx="0" cy="4373880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14977,8 +14977,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4932680" y="1412240"/>
-          <a:ext cx="1851660" cy="2887345"/>
+          <a:off x="5412740" y="1332230"/>
+          <a:ext cx="2057400" cy="2704465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15135,8 +15135,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6766560" y="708660"/>
-          <a:ext cx="15240" cy="4572000"/>
+          <a:off x="7452360" y="674370"/>
+          <a:ext cx="15240" cy="4286250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -15179,8 +15179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5057140" y="1391920"/>
-          <a:ext cx="1440180" cy="2879725"/>
+          <a:off x="5605780" y="1311910"/>
+          <a:ext cx="1577340" cy="2696845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15337,8 +15337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4869180" y="2033905"/>
-          <a:ext cx="160020" cy="2218055"/>
+          <a:off x="5349240" y="1908175"/>
+          <a:ext cx="228600" cy="2080895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15495,8 +15495,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543040" y="1460500"/>
-          <a:ext cx="464185" cy="1683385"/>
+          <a:off x="7228840" y="1371600"/>
+          <a:ext cx="532765" cy="1577975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -15653,8 +15653,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543040" y="3289300"/>
-          <a:ext cx="464185" cy="928370"/>
+          <a:off x="7228840" y="3086100"/>
+          <a:ext cx="532765" cy="868680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -15811,8 +15811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="3027680"/>
-          <a:ext cx="487680" cy="466090"/>
+          <a:off x="4621530" y="2844800"/>
+          <a:ext cx="556260" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -15970,8 +15970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3468370" y="3032760"/>
-          <a:ext cx="487680" cy="466090"/>
+          <a:off x="3811270" y="2849880"/>
+          <a:ext cx="556260" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -16129,8 +16129,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3816350" y="3685540"/>
-          <a:ext cx="487680" cy="466090"/>
+          <a:off x="4227830" y="3456940"/>
+          <a:ext cx="487680" cy="443230"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -16275,7 +16275,7 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:ext cx="309880" cy="262255"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="文本框 20"/>
@@ -16283,8 +16283,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10363200" y="4259580"/>
-          <a:ext cx="309880" cy="273685"/>
+          <a:off x="11460480" y="3996690"/>
+          <a:ext cx="309880" cy="262255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16435,8 +16435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7178675" y="1538605"/>
-          <a:ext cx="1148715" cy="1064260"/>
+          <a:off x="7933055" y="1447165"/>
+          <a:ext cx="1285875" cy="995680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -16593,8 +16593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8694420" y="5082540"/>
-          <a:ext cx="1806575" cy="411480"/>
+          <a:off x="9654540" y="4773930"/>
+          <a:ext cx="2012315" cy="377190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16757,8 +16757,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5529580" y="4950460"/>
-          <a:ext cx="1806575" cy="609600"/>
+          <a:off x="6078220" y="4641850"/>
+          <a:ext cx="2012315" cy="575310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16923,8 +16923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6433185" y="3901440"/>
-          <a:ext cx="828675" cy="1049020"/>
+          <a:off x="7118985" y="3661410"/>
+          <a:ext cx="897255" cy="980440"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -16975,8 +16975,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5760720" y="1805940"/>
-          <a:ext cx="672465" cy="3144520"/>
+          <a:off x="6377940" y="1703070"/>
+          <a:ext cx="741045" cy="2938780"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -17025,8 +17025,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9458325" y="1578610"/>
-          <a:ext cx="1661795" cy="298450"/>
+          <a:off x="10487025" y="1487170"/>
+          <a:ext cx="1867535" cy="275590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17191,8 +17191,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8327390" y="1770380"/>
-          <a:ext cx="1108710" cy="300355"/>
+          <a:off x="9218930" y="1667510"/>
+          <a:ext cx="1245870" cy="277495"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -17241,8 +17241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1112520" y="914400"/>
-          <a:ext cx="1806575" cy="2269490"/>
+          <a:off x="1181100" y="857250"/>
+          <a:ext cx="2012315" cy="2132330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17441,8 +17441,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2919095" y="2049145"/>
-          <a:ext cx="738505" cy="175895"/>
+          <a:off x="3193415" y="1923415"/>
+          <a:ext cx="807085" cy="164465"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -17493,8 +17493,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6775450" y="4217670"/>
-          <a:ext cx="783590" cy="537210"/>
+          <a:off x="7461250" y="3954780"/>
+          <a:ext cx="920750" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -17543,8 +17543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7406640" y="4762500"/>
-          <a:ext cx="1082040" cy="693420"/>
+          <a:off x="8229600" y="4465320"/>
+          <a:ext cx="1150620" cy="659130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17707,8 +17707,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7246620" y="3139440"/>
-          <a:ext cx="1014730" cy="1014095"/>
+          <a:off x="8001000" y="2945130"/>
+          <a:ext cx="1151890" cy="956945"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -17865,8 +17865,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7395210" y="3288030"/>
-          <a:ext cx="717550" cy="716915"/>
+          <a:off x="8149590" y="3086100"/>
+          <a:ext cx="854710" cy="678815"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -17912,8 +17912,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7395210" y="3288030"/>
-          <a:ext cx="717550" cy="716915"/>
+          <a:off x="8149590" y="3086100"/>
+          <a:ext cx="854710" cy="678815"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -17956,8 +17956,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7910195" y="3535680"/>
-          <a:ext cx="273050" cy="285750"/>
+          <a:off x="8733155" y="3318510"/>
+          <a:ext cx="341630" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18026,8 +18026,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7625715" y="3754120"/>
-          <a:ext cx="273050" cy="285750"/>
+          <a:off x="8448675" y="3525520"/>
+          <a:ext cx="273050" cy="262890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18195,8 +18195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7303135" y="3484880"/>
-          <a:ext cx="273050" cy="285750"/>
+          <a:off x="8057515" y="3267710"/>
+          <a:ext cx="341630" cy="274320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18364,8 +18364,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7628255" y="3208020"/>
-          <a:ext cx="273050" cy="285750"/>
+          <a:off x="8451215" y="3013710"/>
+          <a:ext cx="273050" cy="262890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18529,8 +18529,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7538720" y="2738120"/>
-          <a:ext cx="464185" cy="242570"/>
+          <a:off x="8361680" y="2571750"/>
+          <a:ext cx="464185" cy="226060"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18689,8 +18689,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8002905" y="2743200"/>
-          <a:ext cx="1263015" cy="116205"/>
+          <a:off x="8825865" y="2571750"/>
+          <a:ext cx="1468755" cy="116205"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18739,8 +18739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3503295" y="1536065"/>
-          <a:ext cx="1148715" cy="1430020"/>
+          <a:off x="3846195" y="1444625"/>
+          <a:ext cx="1285875" cy="1338580"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18897,8 +18897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4688840" y="1449705"/>
-          <a:ext cx="365125" cy="532765"/>
+          <a:off x="5168900" y="1369695"/>
+          <a:ext cx="433705" cy="498475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -19055,8 +19055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9281160" y="2583180"/>
-          <a:ext cx="1249680" cy="456565"/>
+          <a:off x="10309860" y="2423160"/>
+          <a:ext cx="1386840" cy="433705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19120,8 +19120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4792980" y="1188720"/>
-          <a:ext cx="2065655" cy="348615"/>
+          <a:off x="5273040" y="1120140"/>
+          <a:ext cx="2339975" cy="325755"/>
           <a:chOff x="6792" y="1716"/>
           <a:chExt cx="3253" cy="549"/>
         </a:xfrm>
@@ -19472,7 +19472,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -19754,10 +19754,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -19775,7 +19775,7 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
